--- a/data/trans_orig/cron_index-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/cron_index-Estudios-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8795524651434291</v>
+        <v>0.8811077358916961</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.165004241468014</v>
+        <v>1.177667119521013</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.108274422362324</v>
+        <v>1.107539888586549</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.483939809543384</v>
+        <v>1.479908693833081</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.234982964205039</v>
+        <v>1.2404428885856</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.445649860632658</v>
+        <v>1.43911655387845</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.412119814872626</v>
+        <v>1.409486752330051</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.012675648146266</v>
+        <v>2.011329033174645</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.098617095283988</v>
+        <v>1.098864546348012</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1.34953151536274</v>
+        <v>1.358641120910086</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.30992617555548</v>
+        <v>1.309113924414176</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>1.827830450707837</v>
+        <v>1.819095469228539</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.020421341634816</v>
+        <v>1.03212297410934</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.360580110470746</v>
+        <v>1.376152461367761</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.309786019586997</v>
+        <v>1.315303004053697</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.77981014291023</v>
+        <v>1.780553274462534</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.391786709929203</v>
+        <v>1.385474273513875</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.616045664333789</v>
+        <v>1.607021966512945</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.605532072433397</v>
+        <v>1.609792462603405</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.230895595628759</v>
+        <v>2.24003206673996</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.20653931323956</v>
+        <v>1.208979497461971</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1.479407370091083</v>
+        <v>1.481947858518338</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1.449402914212496</v>
+        <v>1.452243969348982</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>2.007163453028701</v>
+        <v>2.003234493877973</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.4532131123479212</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.7679408650706356</v>
+        <v>0.7679408650706357</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3493678925213752</v>
@@ -817,7 +817,7 @@
         <v>0.4874951947782541</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.7043838111457377</v>
+        <v>0.7043838111457373</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3269334238029958</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.272935528622112</v>
+        <v>0.2744168066276034</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3396315667974177</v>
+        <v>0.3404631514236893</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4146079165559067</v>
+        <v>0.4122169072834457</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7158546260050078</v>
+        <v>0.7115466662796325</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3141310846871677</v>
+        <v>0.3169026195750398</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3568346537587244</v>
+        <v>0.3638296302753435</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.446334397500363</v>
+        <v>0.4466698696431585</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6628397061348927</v>
+        <v>0.6616852277807639</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3044126206201223</v>
+        <v>0.3010403247547933</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.357747874660496</v>
+        <v>0.36018493802515</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4411488640443547</v>
+        <v>0.4400636793391128</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7013880334102979</v>
+        <v>0.7021203099126831</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3463885666002452</v>
+        <v>0.3413235681894287</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4091196334132211</v>
+        <v>0.414216747992277</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4935880901122263</v>
+        <v>0.495453858034953</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8301729290410397</v>
+        <v>0.8325717181773399</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3901358486432534</v>
+        <v>0.3911713220399607</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4387071357012863</v>
+        <v>0.4378255121964277</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.532846968441492</v>
+        <v>0.5356755907122497</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7501081359954315</v>
+        <v>0.746922121748925</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3549639786900361</v>
+        <v>0.3556626063790835</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4121243107986122</v>
+        <v>0.4122660115064259</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4996223353025954</v>
+        <v>0.4991117925649843</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7721986715558925</v>
+        <v>0.7735645856022157</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.4233276092610763</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7501733558492852</v>
+        <v>0.7501733558492851</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3125063912955857</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2526708856424457</v>
+        <v>0.2451817592528534</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2644478893883073</v>
+        <v>0.2668657909959608</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3570502862243947</v>
+        <v>0.3620731746050722</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6620617216836076</v>
+        <v>0.6698709748690977</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2550127188088798</v>
+        <v>0.2560473664388803</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2632950334958638</v>
+        <v>0.2645188439723551</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3207717982252875</v>
+        <v>0.3187830504243703</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5882977696137338</v>
+        <v>0.5963304009715068</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2655219064054255</v>
+        <v>0.2666502334954539</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2831067202874806</v>
+        <v>0.2858041031141745</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3634331731325557</v>
+        <v>0.3604255670511557</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.6489087197094827</v>
+        <v>0.653443184562138</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3784413162530696</v>
+        <v>0.3721559772964835</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4479905204641579</v>
+        <v>0.4327649830430931</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.502994636987066</v>
+        <v>0.5059706351335118</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8451461367311911</v>
+        <v>0.8525472915789114</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3842751906415033</v>
+        <v>0.3886665670543475</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4247352208204833</v>
+        <v>0.4256025472885291</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4671198890146897</v>
+        <v>0.4687524876538057</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7271517604255631</v>
+        <v>0.7293896122685054</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3543765175745789</v>
+        <v>0.3559030269470783</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3947761151138693</v>
+        <v>0.3926924371015791</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4596410534697943</v>
+        <v>0.4644027799727801</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.7668873427418706</v>
+        <v>0.7685938368937186</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>0.689863444508464</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.9575354883183734</v>
+        <v>0.9575354883183735</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4766884949692131</v>
+        <v>0.4757212244851498</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.583693105176294</v>
+        <v>0.5804788528431655</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5832132132465306</v>
+        <v>0.5799209433731861</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8553535347141249</v>
+        <v>0.8581238218278491</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6779141761518382</v>
+        <v>0.6805158011868064</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7685675986615077</v>
+        <v>0.7763674798666563</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7193829306606889</v>
+        <v>0.7188455051392421</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9664863831100902</v>
+        <v>0.9653624229353137</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5889729607274856</v>
+        <v>0.5892930811999064</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6889506753021445</v>
+        <v>0.6940456647849729</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.6588029731527878</v>
+        <v>0.6640160780290418</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.926912279919499</v>
+        <v>0.926016797405</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5419051649612215</v>
+        <v>0.5415930929578023</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.659062087384962</v>
+        <v>0.6616205170865956</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6547143454966676</v>
+        <v>0.6552793146901752</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9566821720887662</v>
+        <v>0.9638964323491545</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7573346087346515</v>
+        <v>0.7559177989174038</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8554579498228354</v>
+        <v>0.8586782820103167</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8011248195646637</v>
+        <v>0.8014096431487943</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>1.047472118327863</v>
+        <v>1.045150339472882</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6411894307180539</v>
+        <v>0.6408974939160378</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7489875284323897</v>
+        <v>0.7524428127313882</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7152419781615575</v>
+        <v>0.7169611627380145</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9898170703046286</v>
+        <v>0.9906244780574616</v>
       </c>
     </row>
     <row r="16">
